--- a/Cronograma PTCC - Ceos Community.xlsx
+++ b/Cronograma PTCC - Ceos Community.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Etec\Ds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322A821F-65C4-403A-ADAC-509F49A103F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E125CE-0737-4114-BE2A-A019AB3907A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{DE16619F-E186-4668-B08A-9398905F5CEC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
   <si>
     <t>EQUIPE CEOS COMMUNITY</t>
   </si>
@@ -242,9 +242,6 @@
     <t>Criação do capítulo tecnologias usadas</t>
   </si>
   <si>
-    <t xml:space="preserve">Kawan </t>
-  </si>
-  <si>
     <t xml:space="preserve">Criar repositório </t>
   </si>
   <si>
@@ -255,6 +252,18 @@
   </si>
   <si>
     <t xml:space="preserve">Desenvolver o Site </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todos os Membros </t>
+  </si>
+  <si>
+    <t>Resumo</t>
+  </si>
+  <si>
+    <t>justificativa</t>
+  </si>
+  <si>
+    <t>fundamentação teorica</t>
   </si>
 </sst>
 </file>
@@ -960,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB92A629-A00F-4BD4-91BE-D322169B9E69}">
   <dimension ref="B1:U104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S27" sqref="N20:S27"/>
+    <sheetView tabSelected="1" topLeftCell="J13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,7 +1439,7 @@
       <c r="O16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="3">
         <f t="shared" ref="P16:P27" si="0">R16-Q16</f>
         <v>7</v>
       </c>
@@ -1478,7 +1487,7 @@
       <c r="O18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1526,18 +1535,18 @@
       <c r="O20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="3">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="8">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="R20" s="8">
-        <v>44335</v>
-      </c>
-      <c r="S20" s="17" t="s">
-        <v>40</v>
+        <v>44349</v>
+      </c>
+      <c r="S20" s="18" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="13:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1572,20 +1581,20 @@
         <v>61</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="P22" s="4">
+        <v>66</v>
+      </c>
+      <c r="P22" s="3">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q22" s="8">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="R22" s="8">
-        <v>44335</v>
+        <v>44349</v>
       </c>
       <c r="S22" s="18" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="13:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1593,10 +1602,10 @@
         <v>20</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O23" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P23" s="4">
         <f t="shared" si="0"/>
@@ -1622,7 +1631,7 @@
       <c r="O24" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1665,20 +1674,20 @@
         <v>23</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O26" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="3">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Q26" s="8">
         <v>44342</v>
       </c>
       <c r="R26" s="8">
-        <v>44356</v>
+        <v>44370</v>
       </c>
       <c r="S26" s="18" t="s">
         <v>40</v>
@@ -1689,57 +1698,69 @@
         <v>24</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O27" s="13" t="s">
         <v>34</v>
       </c>
       <c r="P27" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q27" s="9">
         <v>44328</v>
       </c>
       <c r="R27" s="9">
-        <v>44335</v>
-      </c>
-      <c r="S27" s="18" t="s">
-        <v>40</v>
+        <v>44342</v>
+      </c>
+      <c r="S27" s="17" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="13:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M28" s="3">
         <v>25</v>
       </c>
-      <c r="N28" s="14"/>
+      <c r="N28" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="O28" s="14"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="17"/>
+      <c r="S28" s="17" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="29" spans="13:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M29" s="4">
         <v>26</v>
       </c>
-      <c r="N29" s="13"/>
+      <c r="N29" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="O29" s="13"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
-      <c r="S29" s="18"/>
+      <c r="S29" s="18" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="30" spans="13:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M30" s="3">
         <v>27</v>
       </c>
-      <c r="N30" s="14"/>
+      <c r="N30" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="O30" s="14"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
-      <c r="S30" s="17"/>
+      <c r="S30" s="17" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" spans="13:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M31" s="4">
